--- a/VeloMax/Ressources/Tables/velo.xlsx
+++ b/VeloMax/Ressources/Tables/velo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Documents\Info\Esilv\S6\BDD\ProjetFinal\VeloMax\Ressources\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762CFE77-BD9A-4BEF-A267-C1D6D7B54742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E26DD6F-59E4-491C-8320-C5307B7629EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>numero_velo</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>finalQuery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Parameter</t>
@@ -443,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -463,7 +460,7 @@
     <col min="10" max="10" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,16 +486,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +504,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D21" ca="1" si="0">RANDBETWEEN(50,500)</f>
-        <v>115</v>
+        <v>419</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E21" ca="1" si="1">CHOOSE(RANDBETWEEN(1,4),$I$2,$I$3,$I$4,$I$5,)</f>
@@ -519,26 +513,23 @@
       <c r="F2" s="1">
         <v>40909</v>
       </c>
-      <c r="G2" s="1">
-        <f ca="1">IF(TODAY()-DATE(6,0,0)&gt;=F2,F2+DATE(5,0,0),DATE(8888,8,8))</f>
-        <v>42705</v>
+      <c r="G2" s="1" t="str">
+        <f ca="1">IF(TODAY()-DATE(6,0,0)&gt;=F2,TEXT(F2+DATE(5,0,0),"'aaaa-mm-jj'"),"null")</f>
+        <v>'2016-12-01'</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H21" ca="1" si="2" xml:space="preserve"> RANDBETWEEN(10,300)</f>
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f ca="1">"INSERT INTO velo VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;TEXT(F2,"aaaa-mm-jj")&amp;"','"&amp;TEXT(G2,"aaaa-mm-jj")&amp;"',"&amp;H2&amp;");"</f>
-        <v>INSERT INTO velo VALUES (1,'Kilimandjaro','Adulte',115,'Classique','2012-01-01','2016-12-01',252);</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <f ca="1">"INSERT INTO velo VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",'"&amp;E2&amp;"','"&amp;TEXT(F2,"aaaa-mm-jj")&amp;"',"&amp;G2&amp;","&amp;H2&amp;");"</f>
+        <v>INSERT INTO velo VALUES (1,'Kilimandjaro','Adulte',419,'Classique','2012-01-01','2016-12-01',164);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,35 +541,32 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Classique</v>
+        <v>BMX</v>
       </c>
       <c r="F3" s="1">
         <v>40909</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G21" ca="1" si="3">IF(TODAY()-DATE(6,0,0)&gt;=F3,F3+DATE(5,0,0),DATE(8888,8,8))</f>
-        <v>42705</v>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G21" ca="1" si="3">IF(TODAY()-DATE(6,0,0)&gt;=F3,TEXT(F3+DATE(5,0,0),"'aaaa-mm-jj'"),"null")</f>
+        <v>'2016-12-01'</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J21" ca="1" si="4">"INSERT INTO velo VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;TEXT(F3,"aaaa-mm-jj")&amp;"','"&amp;TEXT(G3,"aaaa-mm-jj")&amp;"',"&amp;H3&amp;");"</f>
-        <v>INSERT INTO velo VALUES (2,'Kilimandjaro','Adolescent',107,'Classique','2012-01-01','2016-12-01',211);</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J3:J21" ca="1" si="4">"INSERT INTO velo VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",'"&amp;E3&amp;"','"&amp;TEXT(F3,"aaaa-mm-jj")&amp;"',"&amp;G3&amp;","&amp;H3&amp;");"</f>
+        <v>INSERT INTO velo VALUES (2,'Kilimandjaro','Adolescent',252,'BMX','2012-01-01','2016-12-01',249);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -590,7 +578,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>61</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -599,26 +587,23 @@
       <c r="F4" s="1">
         <v>40909</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>42705</v>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2016-12-01'</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (3,'Kilimandjaro','Adolescent',443,'Vélo_de_course','2012-01-01','2016-12-01',219);</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (3,'Kilimandjaro','Adolescent',61,'Vélo_de_course','2012-01-01','2016-12-01',197);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -630,35 +615,32 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>BMX</v>
       </c>
       <c r="F5" s="1">
         <v>41275</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43071</v>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2017-12-02'</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (4,'NorthPole','Adolescent',340,'VTT','2013-01-01','2017-12-02',37);</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (4,'NorthPole','Adolescent',350,'BMX','2013-01-01','2017-12-02',118);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -670,32 +652,29 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BMX</v>
+        <v>Vélo_de_course</v>
       </c>
       <c r="F6" s="1">
         <v>41640</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43436</v>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2018-12-02'</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (5,'MontBlanc','Adolescent',436,'BMX','2014-01-01','2018-12-02',73);</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (5,'MontBlanc','Adolescent',414,'Vélo_de_course','2014-01-01','2018-12-02',202);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -707,32 +686,29 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>418</v>
+        <v>144</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BMX</v>
+        <v>Classique</v>
       </c>
       <c r="F7" s="1">
         <v>41640</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43436</v>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2018-12-02'</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (6,'Hooligan','Enfant',418,'BMX','2014-01-01','2018-12-02',156);</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (6,'Hooligan','Enfant',144,'Classique','2014-01-01','2018-12-02',108);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -744,32 +720,29 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Classique</v>
+        <v>VTT</v>
       </c>
       <c r="F8" s="1">
         <v>42005</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43801</v>
+      <c r="G8" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2019-12-02'</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (7,'Orléans','Adulte',191,'Classique','2015-01-01','2019-12-02',214);</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (7,'Orléans','Adulte',100,'VTT','2015-01-01','2019-12-02',173);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -781,32 +754,29 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
+        <v>125</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>Classique</v>
       </c>
       <c r="F9" s="1">
         <v>42005</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43801</v>
+      <c r="G9" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2019-12-02'</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (8,'BlueJay','Enfant',462,'VTT','2015-01-01','2019-12-02',148);</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (8,'BlueJay','Enfant',125,'Classique','2015-01-01','2019-12-02',214);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -818,32 +788,29 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>BMX</v>
       </c>
       <c r="F10" s="1">
         <v>42005</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43801</v>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2019-12-02'</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (9,'Trail_Explorer','Enfant',213,'VTT','2015-01-01','2019-12-02',130);</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (9,'Trail_Explorer','Enfant',147,'BMX','2015-01-01','2019-12-02',84);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -855,32 +822,29 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>BMX</v>
       </c>
       <c r="F11" s="1">
         <v>42005</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43801</v>
+      <c r="G11" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>'2019-12-02'</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (10,'Night_Hawk','Adolescent',477,'VTT','2015-01-01','2019-12-02',292);</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (10,'Night_Hawk','Adolescent',243,'BMX','2015-01-01','2019-12-02',157);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -892,32 +856,29 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>Classique</v>
       </c>
       <c r="F12" s="1">
         <v>42370</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G12" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (11,'Tierra_Verde','Adolescent',57,'VTT','2016-01-01','8888-08-08',132);</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (11,'Tierra_Verde','Adolescent',287,'Classique','2016-01-01',null,233);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -929,32 +890,29 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>154</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>BMX</v>
       </c>
       <c r="F13" s="1">
         <v>42736</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G13" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (12,'Mud_Zinger_I','Adulte',455,'VTT','2017-01-01','8888-08-08',127);</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (12,'Mud_Zinger_I','Adulte',154,'BMX','2017-01-01',null,292);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -966,32 +924,29 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BMX</v>
+        <v>Classique</v>
       </c>
       <c r="F14" s="1">
         <v>43101</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G14" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (13,'Mud_Zinger_II','Enfant',467,'BMX','2018-01-01','8888-08-08',34);</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (13,'Mud_Zinger_II','Enfant',478,'Classique','2018-01-01',null,157);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1003,7 +958,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1012,23 +967,20 @@
       <c r="F15" s="1">
         <v>43101</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (14,'NorthPole','Adolescent',306,'Vélo_de_course','2018-01-01','8888-08-08',244);</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (14,'NorthPole','Adolescent',74,'Vélo_de_course','2018-01-01',null,220);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1040,32 +992,29 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>390</v>
+        <v>262</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BMX</v>
+        <v>Classique</v>
       </c>
       <c r="F16" s="1">
         <v>43101</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G16" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (15,'MontBlanc','Adolescent',390,'BMX','2018-01-01','8888-08-08',33);</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (15,'MontBlanc','Adolescent',262,'Classique','2018-01-01',null,221);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1077,7 +1026,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>198</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1086,23 +1035,20 @@
       <c r="F17" s="1">
         <v>43466</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G17" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (16,'Hooligan','Adolescent',432,'Classique','2019-01-01','8888-08-08',18);</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (16,'Hooligan','Adolescent',198,'Classique','2019-01-01',null,101);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1114,32 +1060,29 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>BMX</v>
       </c>
       <c r="F18" s="1">
         <v>43466</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (17,'Orléans','Enfant',189,'VTT','2019-01-01','8888-08-08',200);</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (17,'Orléans','Enfant',218,'BMX','2019-01-01',null,225);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1151,32 +1094,29 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTT</v>
+        <v>Vélo_de_course</v>
       </c>
       <c r="F19" s="1">
         <v>43831</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G19" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (18,'BlueJay','Enfant',179,'VTT','2020-01-01','8888-08-08',249);</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (18,'BlueJay','Enfant',402,'Vélo_de_course','2020-01-01',null,76);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1188,7 +1128,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1197,23 +1137,20 @@
       <c r="F20" s="1">
         <v>43831</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G20" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (19,'Trail_Explorer','Enfant',170,'Classique','2020-01-01','8888-08-08',194);</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>INSERT INTO velo VALUES (19,'Trail_Explorer','Enfant',269,'Classique','2020-01-01',null,215);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1225,7 +1162,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1234,20 +1171,17 @@
       <c r="F21" s="1">
         <v>43831</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2552537</v>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>null</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO velo VALUES (20,'Trail_Explorer','Adolescent',255,'VTT','2020-01-01','8888-08-08',137);</v>
-      </c>
-      <c r="K21" t="s">
-        <v>27</v>
+        <v>INSERT INTO velo VALUES (20,'Trail_Explorer','Adolescent',197,'VTT','2020-01-01',null,33);</v>
       </c>
     </row>
   </sheetData>
